--- a/wise.xlsx
+++ b/wise.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>名称</t>
   </si>
@@ -31,7 +31,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>ChilloutMix</t>
+    <t>chilloutmix_NiPrunedFp32Fix.safetensors</t>
   </si>
   <si>
     <t>CKPT</t>
@@ -46,7 +46,7 @@
     <t>真人主模型</t>
   </si>
   <si>
-    <t>ShojoVibev_11</t>
+    <t>ShojoVibev_11.safetensors</t>
   </si>
   <si>
     <t>Lora</t>
@@ -61,7 +61,7 @@
     <t>少女感Lora</t>
   </si>
   <si>
-    <t>vae-ft-mse-840000-ema-pruned</t>
+    <t>vae-ft-mse-840000-ema-pruned.safetensors</t>
   </si>
   <si>
     <t>VAE</t>
@@ -89,6 +89,18 @@
   </si>
   <si>
     <t>语义分割</t>
+  </si>
+  <si>
+    <t>majicmixRealistic_v6.safetensors</t>
+  </si>
+  <si>
+    <t>https://civitai.com/api/download/models/94640</t>
+  </si>
+  <si>
+    <t>2.24GB</t>
+  </si>
+  <si>
+    <t>真人</t>
   </si>
 </sst>
 </file>
@@ -118,6 +130,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -126,6 +174,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -143,112 +251,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,31 +275,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,151 +455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,6 +466,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -477,30 +498,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,6 +532,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -545,15 +566,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -562,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,16 +586,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,115 +604,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -709,18 +721,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="fill" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="fill" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="fill" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1073,15 +1085,15 @@
   <sheetPr/>
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="20.7777777777778" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.7777777777778" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.7777777777778" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.7777777777778" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.7777777777778" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.7777777777778" customWidth="1"/>
   </cols>
@@ -1090,7 +1102,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1107,10 +1119,10 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1124,10 +1136,10 @@
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1141,7 +1153,7 @@
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1158,10 +1170,10 @@
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1171,293 +1183,308 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="4"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="4"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="4"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="4"/>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="4"/>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="4"/>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="4"/>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="4"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="4"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="4"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="4"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="4"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="4"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="4"/>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="4"/>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="4"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="4"/>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="4"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="4"/>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="4"/>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="4"/>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="4"/>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="4"/>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="4"/>
+      <c r="B30" s="3"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="4"/>
+      <c r="B31" s="3"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="4"/>
+      <c r="B32" s="3"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="4"/>
+      <c r="B33" s="3"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="4"/>
+      <c r="B34" s="3"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="4"/>
+      <c r="B35" s="3"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="4"/>
+      <c r="B36" s="3"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="4"/>
+      <c r="B37" s="3"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="4"/>
+      <c r="B38" s="3"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="4"/>
+      <c r="B39" s="3"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="4"/>
+      <c r="B40" s="3"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="4"/>
+      <c r="B41" s="3"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="4"/>
+      <c r="B42" s="3"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="4"/>
+      <c r="B43" s="3"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="4"/>
+      <c r="B44" s="3"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="4"/>
+      <c r="B45" s="3"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="4"/>
+      <c r="B46" s="3"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="4"/>
+      <c r="B47" s="3"/>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="4"/>
+      <c r="B48" s="3"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="4"/>
+      <c r="B49" s="3"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="4"/>
+      <c r="B50" s="3"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="4"/>
+      <c r="B51" s="3"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="4"/>
+      <c r="B52" s="3"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="4"/>
+      <c r="B53" s="3"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="4"/>
+      <c r="B54" s="3"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="4"/>
+      <c r="B55" s="3"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="4"/>
+      <c r="B56" s="3"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="4"/>
+      <c r="B57" s="3"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="4"/>
+      <c r="B58" s="3"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="4"/>
+      <c r="B59" s="3"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="4"/>
+      <c r="B60" s="3"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="4"/>
+      <c r="B61" s="3"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="4"/>
+      <c r="B62" s="3"/>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="4"/>
+      <c r="B63" s="3"/>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="4"/>
+      <c r="B64" s="3"/>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="4"/>
+      <c r="B65" s="3"/>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="4"/>
+      <c r="B66" s="3"/>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="4"/>
+      <c r="B67" s="3"/>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="4"/>
+      <c r="B68" s="3"/>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="4"/>
+      <c r="B69" s="3"/>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="4"/>
+      <c r="B70" s="3"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="4"/>
+      <c r="B71" s="3"/>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="4"/>
+      <c r="B72" s="3"/>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="4"/>
+      <c r="B73" s="3"/>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="4"/>
+      <c r="B74" s="3"/>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="4"/>
+      <c r="B75" s="3"/>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="4"/>
+      <c r="B76" s="3"/>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="4"/>
+      <c r="B77" s="3"/>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="4"/>
+      <c r="B78" s="3"/>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="4"/>
+      <c r="B79" s="3"/>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="4"/>
+      <c r="B80" s="3"/>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="4"/>
+      <c r="B81" s="3"/>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="4"/>
+      <c r="B82" s="3"/>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="4"/>
+      <c r="B83" s="3"/>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="4"/>
+      <c r="B84" s="3"/>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="4"/>
+      <c r="B85" s="3"/>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="4"/>
+      <c r="B86" s="3"/>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="4"/>
+      <c r="B87" s="3"/>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="4"/>
+      <c r="B88" s="3"/>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="4"/>
+      <c r="B89" s="3"/>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="4"/>
+      <c r="B90" s="3"/>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="4"/>
+      <c r="B91" s="3"/>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="4"/>
+      <c r="B92" s="3"/>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="4"/>
+      <c r="B93" s="3"/>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="4"/>
+      <c r="B94" s="3"/>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="4"/>
+      <c r="B95" s="3"/>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="4"/>
+      <c r="B96" s="3"/>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="4"/>
+      <c r="B97" s="3"/>
     </row>
     <row r="98" spans="2:2">
-      <c r="B98" s="4"/>
+      <c r="B98" s="3"/>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="4"/>
+      <c r="B99" s="3"/>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="4"/>
+      <c r="B100" s="3"/>
     </row>
     <row r="101" spans="2:2">
-      <c r="B101" s="4"/>
+      <c r="B101" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -1467,7 +1494,8 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" display="https://huggingface.co/stabilityai/sd-vae-ft-mse-original/resolve/main/vae-ft-mse-840000-ema-pruned.safetensors"/>
+    <hyperlink ref="C4" r:id="rId1" display="https://huggingface.co/stabilityai/sd-vae-ft-mse-original/resolve/main/vae-ft-mse-840000-ema-pruned.safetensors" tooltip="https://huggingface.co/stabilityai/sd-vae-ft-mse-original/resolve/main/vae-ft-mse-840000-ema-pruned.safetensors"/>
+    <hyperlink ref="C2" r:id="rId2" display="https://huggingface.co/ckpt/chilloutmix/resolve/main/chilloutmix_NiPrunedFp32Fix.safetensors"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/wise.xlsx
+++ b/wise.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>名称</t>
   </si>
@@ -101,6 +101,18 @@
   </si>
   <si>
     <t>真人</t>
+  </si>
+  <si>
+    <t>control_v1p_sd15_brightness.safetensors</t>
+  </si>
+  <si>
+    <t>Controlnet</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/ioclab/ioc-controlnet/resolve/main/models/control_v1p_sd15_brightness.safetensors</t>
+  </si>
+  <si>
+    <t>control_v1p_sd15_brightness.yaml</t>
   </si>
 </sst>
 </file>
@@ -108,10 +120,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -153,14 +165,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,10 +194,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -189,20 +270,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -210,61 +277,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -275,31 +287,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,151 +437,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,9 +483,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,6 +516,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -513,21 +551,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,17 +578,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -574,10 +586,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,133 +598,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1083,10 +1095,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1200,12 +1212,27 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="3"/>
@@ -1485,17 +1512,169 @@
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="3"/>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="3"/>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="3"/>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="3"/>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="3"/>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="3"/>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="3"/>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="3"/>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="3"/>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="3"/>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="3"/>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="3"/>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="3"/>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="3"/>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="3"/>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="3"/>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="3"/>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="3"/>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="3"/>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="3"/>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="3"/>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="3"/>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="3"/>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="3"/>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="3"/>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="3"/>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="3"/>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="3"/>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="3"/>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="3"/>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="3"/>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="3"/>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="3"/>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="3"/>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="3"/>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="3"/>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="3"/>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="3"/>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="3"/>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="3"/>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="3"/>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="3"/>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="3"/>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="3"/>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="3"/>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="3"/>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="3"/>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="3"/>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="3"/>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="3"/>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4 B5:B101">
-      <formula1>"CKPT,Lora,VAE,Embeddings,Scripts,Extensions"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4 B5:B6 B7:B151">
+      <formula1>"CKPT,Lora,VAE,Embeddings,Scripts,Extensions,Controlnet"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" display="https://huggingface.co/stabilityai/sd-vae-ft-mse-original/resolve/main/vae-ft-mse-840000-ema-pruned.safetensors" tooltip="https://huggingface.co/stabilityai/sd-vae-ft-mse-original/resolve/main/vae-ft-mse-840000-ema-pruned.safetensors"/>
     <hyperlink ref="C2" r:id="rId2" display="https://huggingface.co/ckpt/chilloutmix/resolve/main/chilloutmix_NiPrunedFp32Fix.safetensors"/>
+    <hyperlink ref="C7" r:id="rId3" display="https://huggingface.co/ioclab/ioc-controlnet/resolve/main/models/control_v1p_sd15_brightness.safetensors" tooltip="https://huggingface.co/ioclab/ioc-controlnet/resolve/main/models/control_v1p_sd15_brightness.safetensors"/>
+    <hyperlink ref="C8" r:id="rId3" display="https://huggingface.co/ioclab/ioc-controlnet/resolve/main/models/control_v1p_sd15_brightness.safetensors"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
